--- a/unisim_hist.xlsx
+++ b/unisim_hist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/marcelogarret_petrobras_com_br/Documents/Desktop/Mestrado Computação Aplicada - IFES/Balanço de Materiais/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/marcelogarret_petrobras_com_br/Documents/Desktop/Mestrado/projeto_mestrado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5A766D5C-9C51-4CC4-BA4D-C72A81EF5888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5139ECD6-17CD-4B75-A391-D115C4EB12EF}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{5A766D5C-9C51-4CC4-BA4D-C72A81EF5888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D3D07D6-8238-437B-8D93-479F9565B5FC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{93E1D080-ED86-4E0E-95CA-DDE621E0FA4E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{93E1D080-ED86-4E0E-95CA-DDE621E0FA4E}"/>
   </bookViews>
   <sheets>
     <sheet name="unisim" sheetId="1" r:id="rId1"/>
@@ -435,24 +435,24 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41425</v>
       </c>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41455</v>
       </c>
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>41486</v>
       </c>
@@ -593,7 +593,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>41517</v>
       </c>
@@ -629,7 +629,7 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>41547</v>
       </c>
@@ -665,7 +665,7 @@
       </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>41578</v>
       </c>
@@ -701,7 +701,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41608</v>
       </c>
@@ -737,7 +737,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>41639</v>
       </c>
@@ -773,7 +773,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>41670</v>
       </c>
@@ -809,7 +809,7 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>41698</v>
       </c>
@@ -845,7 +845,7 @@
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>41729</v>
       </c>
@@ -881,7 +881,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>41759</v>
       </c>
@@ -917,7 +917,7 @@
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>41790</v>
       </c>
@@ -953,7 +953,7 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>41820</v>
       </c>
@@ -989,7 +989,7 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>41851</v>
       </c>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>41882</v>
       </c>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>41912</v>
       </c>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>41943</v>
       </c>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>41973</v>
       </c>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42004</v>
       </c>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42035</v>
       </c>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42063</v>
       </c>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42094</v>
       </c>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42124</v>
       </c>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42155</v>
       </c>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42185</v>
       </c>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42216</v>
       </c>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42247</v>
       </c>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42277</v>
       </c>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42308</v>
       </c>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>42338</v>
       </c>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>42400</v>
       </c>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>42429</v>
       </c>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>42460</v>
       </c>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>42490</v>
       </c>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>42521</v>
       </c>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42551</v>
       </c>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42582</v>
       </c>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42613</v>
       </c>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42643</v>
       </c>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42674</v>
       </c>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42704</v>
       </c>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42735</v>
       </c>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42766</v>
       </c>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>42794</v>
       </c>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>42825</v>
       </c>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>42855</v>
       </c>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>42886</v>
       </c>
